--- a/csv/enrol1.xlsx
+++ b/csv/enrol1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mildo\OneDrive\Documents\R\NVSU-IPPRC\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC0E5AA2-BFEB-4B57-B8A5-F6571352A3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB3E3A1-35B6-46FC-8120-2E2CF3C002C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
   <si>
     <t>year_rep</t>
   </si>
@@ -77,18 +77,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,9 +97,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -627,24 +620,24 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>5037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1">
-      <c r="A15" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B15" s="1" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2022</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>366</v>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>4621</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -655,13 +648,13 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>4621</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,10 +668,10 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -689,13 +682,13 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,26 +702,9 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>2022</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
         <v>24</v>
       </c>
     </row>
